--- a/buttons.xlsx
+++ b/buttons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>reverse</t>
+  </si>
+  <si>
+    <t>L1</t>
   </si>
   <si>
     <t>Power Off</t>
@@ -646,16 +649,16 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -664,10 +667,10 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -676,10 +679,10 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -688,10 +691,10 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -700,10 +703,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>

--- a/buttons.xlsx
+++ b/buttons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -82,6 +82,12 @@
     <t>screen</t>
   </si>
   <si>
+    <t>Reset （低电位有效）</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>Reset</t>
-  </si>
-  <si>
-    <t>P5</t>
   </si>
   <si>
     <t>Manual Mode</t>
@@ -497,7 +500,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -626,39 +629,43 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -667,10 +674,10 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -679,10 +686,10 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -691,10 +698,10 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -703,10 +710,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>

--- a/buttons.xlsx
+++ b/buttons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t xml:space="preserve">Input </t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>K3</t>
+  </si>
+  <si>
+    <t>move_forward</t>
+  </si>
+  <si>
+    <t>R15</t>
   </si>
   <si>
     <t>Milage</t>
@@ -148,7 +154,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -515,7 +521,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -617,55 +623,59 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -674,10 +684,10 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -686,10 +696,10 @@
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -698,10 +708,10 @@
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -710,10 +720,10 @@
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
